--- a/Weekly Status Updates/04-24-2019/Timesheet Jonathan Risoldi 04242019.xlsx
+++ b/Weekly Status Updates/04-24-2019/Timesheet Jonathan Risoldi 04242019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonat\Desktop\Software Enginering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA7156D-83B2-44AD-9CBE-380A760869FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D066B2F6-756E-4865-BB12-18563E739721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,8 +880,8 @@
   </sheetPr>
   <dimension ref="A2:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.7109375" defaultRowHeight="15"/>
@@ -1055,10 +1055,12 @@
       <c r="I13" s="20">
         <v>6</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="20">
+        <v>2</v>
+      </c>
       <c r="K13" s="10">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="32.25" customHeight="1">
@@ -1070,11 +1072,15 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="20">
+        <v>2</v>
+      </c>
+      <c r="J14" s="20">
+        <v>6</v>
+      </c>
       <c r="K14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="32.25" customHeight="1">
@@ -1180,7 +1186,7 @@
       <c r="J21" s="7"/>
       <c r="K21" s="10">
         <f>SUM(K10:K20)</f>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="16:16">
@@ -1213,6 +1219,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B4C90E18B6B8E6488DE2D33CA009A6F9" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0cebcedc87c4b0e537db430a8f0374d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -1326,15 +1341,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88DB7941-645B-4659-A53B-C826EA960CE2}">
   <ds:schemaRefs>
@@ -1351,6 +1357,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A226A7A-4C63-49D7-BC67-117C305EB901}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736CB76A-896E-4B8A-8CFA-6623A302275A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1364,12 +1378,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A226A7A-4C63-49D7-BC67-117C305EB901}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>